--- a/com.BMWUSA/src/test/resources/BMWTestCases.xlsx
+++ b/com.BMWUSA/src/test/resources/BMWTestCases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabreenmostafa/IdeaProjects/BootCampTeam2/com.BMWUSA/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC616D-3EE0-9F4D-8816-9F9161211370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE69AFB-2088-7847-8D01-847E37F47143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1060" windowWidth="27360" windowHeight="16940" activeTab="3" xr2:uid="{7DED8903-9EFB-DE41-A54B-687D0174EDB5}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="27360" windowHeight="16940" activeTab="5" xr2:uid="{7DED8903-9EFB-DE41-A54B-687D0174EDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="BMWT1" sheetId="1" r:id="rId1"/>
     <sheet name="BMWTEST2" sheetId="3" r:id="rId2"/>
     <sheet name="BMWT3" sheetId="4" r:id="rId3"/>
     <sheet name="BMWT6" sheetId="5" r:id="rId4"/>
+    <sheet name="BMWT7" sheetId="6" r:id="rId5"/>
+    <sheet name="BMWT10" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>Find Your Trade-In Value</t>
   </si>
@@ -112,6 +114,171 @@
   </si>
   <si>
     <t>$ 4,499 Due at Signing</t>
+  </si>
+  <si>
+    <t>New York, NY 10019</t>
+  </si>
+  <si>
+    <t>Douglaston, NY 11362</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY 11209</t>
+  </si>
+  <si>
+    <t>Tenafly, NJ 07670</t>
+  </si>
+  <si>
+    <t>Rochelle Park, NJ 07662</t>
+  </si>
+  <si>
+    <t>Carle Place, NY 11514</t>
+  </si>
+  <si>
+    <t>Bloomfield, NJ 07003</t>
+  </si>
+  <si>
+    <t>Mamaroneck, NY 10543</t>
+  </si>
+  <si>
+    <t>Freeport, NY 11520</t>
+  </si>
+  <si>
+    <t>Westbury, NY 11590</t>
+  </si>
+  <si>
+    <t>Oyster Bay, NY 11771</t>
+  </si>
+  <si>
+    <t>White Plains, NY 10607</t>
+  </si>
+  <si>
+    <t>Springfield, NJ 07081</t>
+  </si>
+  <si>
+    <t>Wayne, NJ 07470</t>
+  </si>
+  <si>
+    <t>Greenwich, CT 06830</t>
+  </si>
+  <si>
+    <t>Ramsey, NJ 07446</t>
+  </si>
+  <si>
+    <t>Spring Valley, NY 10977</t>
+  </si>
+  <si>
+    <t>Huntington, NY 11743</t>
+  </si>
+  <si>
+    <t>Huntington Station, NY 11746</t>
+  </si>
+  <si>
+    <t>Morristown, NJ 07960</t>
+  </si>
+  <si>
+    <t>Edison, NJ 08817</t>
+  </si>
+  <si>
+    <t>Darien, CT 06820</t>
+  </si>
+  <si>
+    <t>Eatontown, NJ 07724</t>
+  </si>
+  <si>
+    <t>Bay Shore, NY 11706</t>
+  </si>
+  <si>
+    <t>Mount Kisco, NY 10549</t>
+  </si>
+  <si>
+    <t>Freehold, NJ 07728</t>
+  </si>
+  <si>
+    <t>Bridgewater, NJ 08807</t>
+  </si>
+  <si>
+    <t>Kenvil (Roxbury), NJ 07847</t>
+  </si>
+  <si>
+    <t>Saint James, NY 11780</t>
+  </si>
+  <si>
+    <t>Harriman, NY 10926</t>
+  </si>
+  <si>
+    <t>Ridgefield, CT 06877</t>
+  </si>
+  <si>
+    <t>Bridgeport, CT 06606</t>
+  </si>
+  <si>
+    <t>Newton, NJ 07860</t>
+  </si>
+  <si>
+    <t>Hamilton, NJ 08619</t>
+  </si>
+  <si>
+    <t>Flemington, NJ 08822</t>
+  </si>
+  <si>
+    <t>Poughkeepsie, NY 12601</t>
+  </si>
+  <si>
+    <t>Doylestown, PA 18901</t>
+  </si>
+  <si>
+    <t>North Haven, CT 06473</t>
+  </si>
+  <si>
+    <t>Waterbury, CT 06705</t>
+  </si>
+  <si>
+    <t>Mount Laurel, NJ 08054</t>
+  </si>
+  <si>
+    <t>Maple Shade, NJ 08052</t>
+  </si>
+  <si>
+    <t>Fort Washington, PA 19034</t>
+  </si>
+  <si>
+    <t>Southampton, NY 11968</t>
+  </si>
+  <si>
+    <t>Allentown, PA 18102</t>
+  </si>
+  <si>
+    <t>Bala Cynwyd, PA 19004</t>
+  </si>
+  <si>
+    <t>Allentown, PA 18104</t>
+  </si>
+  <si>
+    <t>Turnersville, NJ 08012</t>
+  </si>
+  <si>
+    <t>Devon, PA 19333</t>
+  </si>
+  <si>
+    <t>Hartford, CT 06120</t>
+  </si>
+  <si>
+    <t>Egg Harbor Township, NJ 08234</t>
+  </si>
+  <si>
+    <t>https://www.shopbmwusa.com/PRODUCT/6428/BMW-TWINPOWER-TURBO-5W-30-ENGINE-OIL---1-LITER</t>
+  </si>
+  <si>
+    <t>https://www.shopbmwusa.com/ACCESSORIES/BRAKE-SERVICE</t>
+  </si>
+  <si>
+    <t>https://www.shopbmwusa.com/product/3800/BMW-TOUCH---UP-PAINT-STICKS</t>
+  </si>
+  <si>
+    <t>https://www.shopbmwusa.com/product/4514/BMW-NATURAL-AIR-REFILL-STICKS</t>
+  </si>
+  <si>
+    <t>https://www.shopbmwusa.com/product/4768/BMW-EMBLEM-REPLACEMENT</t>
   </si>
 </sst>
 </file>
@@ -610,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD695E-7B1B-7F47-BF2B-4EC7FB84F3A1}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -644,4 +811,334 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED3AB06-7D5B-F64F-B795-A3ECA9751053}">
+  <dimension ref="A2:A56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC54647-8E2E-A740-80A9-C28721A39790}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>